--- a/notebooks/Linear Regression.xlsx
+++ b/notebooks/Linear Regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Data Science\DS-204 Analysis for Data Science\Projects\Final Project\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93980897-F2BC-4CB4-B795-400A9AD00CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCA8C2A-AF2F-4A1F-9B52-26A9C59B5AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B0C91078-A25B-4598-A8A4-8678560E675F}"/>
   </bookViews>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -284,11 +284,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,16 +643,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -664,8 +667,8 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -677,8 +680,8 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -693,7 +696,7 @@
       <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.95</v>
       </c>
     </row>
@@ -710,7 +713,7 @@
       <c r="F7" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f>1-H6</f>
         <v>5.0000000000000044E-2</v>
       </c>
@@ -779,7 +782,7 @@
       <c r="F12">
         <v>6.4188687888453234E-44</v>
       </c>
-      <c r="G12" s="8" t="str">
+      <c r="G12" s="7" t="str">
         <f>IF(F12&lt;=H7,H8,H9)</f>
         <v>True Relationship</v>
       </c>
@@ -902,11 +905,11 @@
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="8" t="str">
         <f>_xlfn.CONCAT("y = ",ROUND(B18,2),"x + ",ROUND(B17,2))</f>
         <v>y = 0.62x + 0.82</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
@@ -965,16 +968,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -989,8 +992,8 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1002,8 +1005,8 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1018,7 +1021,7 @@
       <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.95</v>
       </c>
     </row>
@@ -1035,7 +1038,7 @@
       <c r="F7" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f>1-H6</f>
         <v>5.0000000000000044E-2</v>
       </c>
@@ -1104,7 +1107,7 @@
       <c r="F12">
         <v>2.5482027256873688E-48</v>
       </c>
-      <c r="G12" s="8" t="str">
+      <c r="G12" s="7" t="str">
         <f>IF(F12&lt;=H7,H8,H9)</f>
         <v>True Relationship</v>
       </c>
@@ -1227,11 +1230,11 @@
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="8" t="str">
         <f>_xlfn.CONCAT("y = ",ROUND(B18,2),"x + ",ROUND(B17,2))</f>
         <v>y = 0.94x + 0.9</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
@@ -1276,7 +1279,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1290,22 +1293,22 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>0.80146793201741395</v>
       </c>
       <c r="C4" t="s">
@@ -1314,27 +1317,27 @@
       <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>0.64235084605227011</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>0.64144079731448966</v>
       </c>
       <c r="C6" t="s">
@@ -1343,7 +1346,7 @@
       <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.95</v>
       </c>
     </row>
@@ -1351,7 +1354,7 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>2.7433592765610939</v>
       </c>
       <c r="C7" t="s">
@@ -1360,7 +1363,7 @@
       <c r="F7" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f>1-H6</f>
         <v>5.0000000000000044E-2</v>
       </c>
@@ -1429,7 +1432,7 @@
       <c r="F12">
         <v>9.0014303122765759E-90</v>
       </c>
-      <c r="G12" s="8" t="str">
+      <c r="G12" s="7" t="str">
         <f>IF(F12&lt;=H7,H8,H9)</f>
         <v>True Relationship</v>
       </c>
@@ -1552,11 +1555,11 @@
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="8" t="str">
         <f>_xlfn.CONCAT("y = ",ROUND(B18,2),"x + ",ROUND(B17,2))</f>
         <v>y = 1.11x + -1.65</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
@@ -1565,6 +1568,9 @@
       <c r="D21" t="s">
         <v>29</v>
       </c>
+      <c r="E21" s="11">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
@@ -1573,9 +1579,9 @@
       <c r="D22" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="10">
         <f>(E21*B18)+B17</f>
-        <v>-1.6528038288004616</v>
+        <v>10.516013213700816</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
